--- a/tests/modern_sulfur_cycle/settings.xlsx
+++ b/tests/modern_sulfur_cycle/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1221e7247ec036c5/学术会议/25_10_31 PATMO workshop/Modern sulfur cycle/input files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1221e7247ec036c5/学术会议/25_10_31 PATMO workshop/modern sulfur cycle/input files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{1BD0B8D4-4172-A941-A55C-4E1980980DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC3A98A7-D907-F949-9789-A754E7079745}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{1BD0B8D4-4172-A941-A55C-4E1980980DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01231FBC-13B2-41E9-BD2B-2A069564593C}"/>
   <bookViews>
-    <workbookView xWindow="19980" yWindow="2120" windowWidth="13540" windowHeight="17360" xr2:uid="{06C37378-65EC-8349-A749-809AD85E710E}"/>
+    <workbookView xWindow="15345" yWindow="1830" windowWidth="13680" windowHeight="15210" xr2:uid="{06C37378-65EC-8349-A749-809AD85E710E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>cellsNumber</t>
   </si>
@@ -96,9 +96,6 @@
     <t>useAerosolformation</t>
   </si>
   <si>
-    <t>useGravitySettling</t>
-  </si>
-  <si>
     <t>cm</t>
   </si>
   <si>
@@ -108,40 +105,53 @@
     <t>species-name (put # if no input)</t>
   </si>
   <si>
+    <t>molecule/cm3/s (put # if no input)</t>
+  </si>
+  <si>
+    <t>#constant_species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emission_species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COS:8.1001d2, CS2:5.9886d2, H2S:84.7910d2, SO2:615.84d2, CH3SCH3:39.50274d3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drydep_species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COS:9.5d-3, CS2:4.48d-2, SO2:1, H2S:1.7d-1, CH3SCH3:1.48d-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOA_para</t>
+  </si>
+  <si>
+    <t>gravity_species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>species-name : gravity coeff (put # if no input)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>cm/s (put # if no input)</t>
-  </si>
-  <si>
-    <t>molecule/cm3/s (put # if no input)</t>
-  </si>
-  <si>
-    <t>#constant_species</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>emission_species</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COS:8.1001d2, CS2:5.9886d2, H2S:84.7910d2, SO2:615.84d2, CH3SCH3:39.50274d3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>drydep_species</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COS:9.5d-3, CS2:4.48d-2, SO2:1, H2S:1.7d-1, CH3SCH3:1.48d-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOA_para</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO4:gd(j)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,7 +230,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -236,7 +246,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -554,16 +564,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8537C3E-DE4A-A54B-9562-BA16146EEF99}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="191" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -574,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,18 +595,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -607,29 +617,29 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -640,9 +650,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -651,7 +661,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -662,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -673,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -684,7 +694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -695,46 +705,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tests/modern_sulfur_cycle/settings.xlsx
+++ b/tests/modern_sulfur_cycle/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1221e7247ec036c5/学术会议/25_10_31 PATMO workshop/modern sulfur cycle/input files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{1BD0B8D4-4172-A941-A55C-4E1980980DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01231FBC-13B2-41E9-BD2B-2A069564593C}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{1BD0B8D4-4172-A941-A55C-4E1980980DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CAADD5B-D87A-48D7-B317-43F4FECAAC3A}"/>
   <bookViews>
-    <workbookView xWindow="15345" yWindow="1830" windowWidth="13680" windowHeight="15210" xr2:uid="{06C37378-65EC-8349-A749-809AD85E710E}"/>
+    <workbookView xWindow="8505" yWindow="1605" windowWidth="22305" windowHeight="18795" xr2:uid="{06C37378-65EC-8349-A749-809AD85E710E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>useAerosolformation</t>
   </si>
   <si>
-    <t>cm</t>
-  </si>
-  <si>
     <t>nm</t>
   </si>
   <si>
@@ -144,6 +141,10 @@
   </si>
   <si>
     <t>SO4:gd(j)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,13 +221,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -243,6 +241,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -564,13 +566,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8537C3E-DE4A-A54B-9562-BA16146EEF99}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -600,10 +604,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -622,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>120</v>
@@ -633,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>400</v>
@@ -652,7 +656,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -707,44 +711,44 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tests/modern_sulfur_cycle/settings.xlsx
+++ b/tests/modern_sulfur_cycle/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1221e7247ec036c5/学术会议/25_10_31 PATMO workshop/modern sulfur cycle/input files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{1BD0B8D4-4172-A941-A55C-4E1980980DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21BB58E3-CA9F-4D0D-A1EA-A200B89EB2D0}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{1BD0B8D4-4172-A941-A55C-4E1980980DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D326EB62-BA9F-4C9E-9BC6-ED4A1786F517}"/>
   <bookViews>
-    <workbookView xWindow="21075" yWindow="1140" windowWidth="15375" windowHeight="19080" xr2:uid="{06C37378-65EC-8349-A749-809AD85E710E}"/>
+    <workbookView xWindow="12690" yWindow="1500" windowWidth="16410" windowHeight="18975" xr2:uid="{06C37378-65EC-8349-A749-809AD85E710E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>cellsNumber</t>
   </si>
@@ -99,10 +99,6 @@
     <t>molecule/cm3/s (put # if no input)</t>
   </si>
   <si>
-    <t>#constant_species</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>emission_species</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -147,6 +143,14 @@
   </si>
   <si>
     <t>useWaterRemoval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>constant_species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HO2, N, CO2, H2O, CO, O2, N2, OH, O, H2, H, O3, </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,12 +187,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,7 +210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,9 +221,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8537C3E-DE4A-A54B-9562-BA16146EEF99}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -606,7 +601,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3">
         <v>1000</v>
@@ -658,7 +653,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -691,7 +686,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -702,7 +697,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -713,44 +708,46 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
